--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE35BEAC-B561-46B3-AE28-BE5CDCC8EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FEFC5-C5F7-4F22-B231-800D20F683F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="D228" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5046,6 +5046,366 @@
         <v>7</v>
       </c>
     </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>126</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+      <c r="E227" s="1">
+        <v>8</v>
+      </c>
+      <c r="F227" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>126</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2</v>
+      </c>
+      <c r="E228" s="1">
+        <v>10</v>
+      </c>
+      <c r="F228" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>126</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>7</v>
+      </c>
+      <c r="E229" s="1">
+        <v>9</v>
+      </c>
+      <c r="F229" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>126</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>10</v>
+      </c>
+      <c r="F230" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>126</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E231" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F231" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>126</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E232" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>126</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="1">
+        <v>7</v>
+      </c>
+      <c r="E233" s="1">
+        <v>6</v>
+      </c>
+      <c r="F233" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>126</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="1">
+        <v>5</v>
+      </c>
+      <c r="E234" s="1">
+        <v>7</v>
+      </c>
+      <c r="F234" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="3">
+        <v>126</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="3">
+        <v>8</v>
+      </c>
+      <c r="E235" s="3">
+        <v>8</v>
+      </c>
+      <c r="F235" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>127</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1">
+        <v>10</v>
+      </c>
+      <c r="F236" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>127</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="1">
+        <v>7</v>
+      </c>
+      <c r="E237" s="1">
+        <v>7</v>
+      </c>
+      <c r="F237" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>127</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1">
+        <v>9</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3</v>
+      </c>
+      <c r="F238" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>127</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="1">
+        <v>7</v>
+      </c>
+      <c r="E239" s="1">
+        <v>10</v>
+      </c>
+      <c r="F239" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>127</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>9</v>
+      </c>
+      <c r="E240" s="1">
+        <v>8</v>
+      </c>
+      <c r="F240" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>127</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1">
+        <v>7</v>
+      </c>
+      <c r="E241" s="1">
+        <v>7</v>
+      </c>
+      <c r="F241" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>127</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="1">
+        <v>4</v>
+      </c>
+      <c r="E242" s="1">
+        <v>9</v>
+      </c>
+      <c r="F242" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>127</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="1">
+        <v>7</v>
+      </c>
+      <c r="E243" s="1">
+        <v>9</v>
+      </c>
+      <c r="F243" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="3">
+        <v>127</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="3">
+        <v>10</v>
+      </c>
+      <c r="E244" s="3">
+        <v>9</v>
+      </c>
+      <c r="F244" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5057,7 +5417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FEFC5-C5F7-4F22-B231-800D20F683F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42932B4D-DC78-4E3F-8E93-E5F2AB4B93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +202,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D228" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262:F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5406,6 +5417,609 @@
         <v>10</v>
       </c>
     </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>128</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="1">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1">
+        <v>5</v>
+      </c>
+      <c r="F245" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>128</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="1">
+        <v>8</v>
+      </c>
+      <c r="E246" s="1">
+        <v>8</v>
+      </c>
+      <c r="F246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>128</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="1">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1">
+        <v>9</v>
+      </c>
+      <c r="F247" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>128</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1">
+        <v>5</v>
+      </c>
+      <c r="E248" s="1">
+        <v>7</v>
+      </c>
+      <c r="F248" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>128</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1">
+        <v>9</v>
+      </c>
+      <c r="E249" s="1">
+        <v>9</v>
+      </c>
+      <c r="F249" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>128</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" s="1">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1">
+        <v>6</v>
+      </c>
+      <c r="F250" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>128</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>9</v>
+      </c>
+      <c r="E251" s="1">
+        <v>4</v>
+      </c>
+      <c r="F251" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>128</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2</v>
+      </c>
+      <c r="E252" s="1">
+        <v>10</v>
+      </c>
+      <c r="F252" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="3">
+        <v>128</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="3">
+        <v>8</v>
+      </c>
+      <c r="E253" s="3">
+        <v>8</v>
+      </c>
+      <c r="F253" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>129</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="1">
+        <v>3</v>
+      </c>
+      <c r="E254" s="1">
+        <v>9</v>
+      </c>
+      <c r="F254" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>129</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="1">
+        <v>5</v>
+      </c>
+      <c r="E255" s="1">
+        <v>4</v>
+      </c>
+      <c r="F255" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>129</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="1">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1">
+        <v>7</v>
+      </c>
+      <c r="F256" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>129</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0</v>
+      </c>
+      <c r="E257" s="1">
+        <v>4</v>
+      </c>
+      <c r="F257" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>129</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="1">
+        <v>8</v>
+      </c>
+      <c r="E258" s="1">
+        <v>4</v>
+      </c>
+      <c r="F258" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>129</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="1">
+        <v>4</v>
+      </c>
+      <c r="E259" s="1">
+        <v>6</v>
+      </c>
+      <c r="F259" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>129</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260" s="1">
+        <v>10</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>129</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" s="1">
+        <v>8</v>
+      </c>
+      <c r="E261" s="1">
+        <v>8</v>
+      </c>
+      <c r="F261" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="8">
+        <v>129</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="8">
+        <v>10</v>
+      </c>
+      <c r="E262" s="8">
+        <v>7</v>
+      </c>
+      <c r="F262" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>130</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>130</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>130</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>130</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>130</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>130</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>130</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>130</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>130</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B283" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5417,7 +6031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42932B4D-DC78-4E3F-8E93-E5F2AB4B93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3B15F-3342-4969-B5F8-468DF057C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262:F262"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5787,6 +5787,15 @@
       <c r="C263" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D263" s="1">
+        <v>6</v>
+      </c>
+      <c r="E263" s="1">
+        <v>7</v>
+      </c>
+      <c r="F263" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
@@ -5798,6 +5807,15 @@
       <c r="C264" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D264" s="1">
+        <v>-100</v>
+      </c>
+      <c r="E264" s="1">
+        <v>-100</v>
+      </c>
+      <c r="F264" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
@@ -5809,6 +5827,15 @@
       <c r="C265" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D265" s="1">
+        <v>8</v>
+      </c>
+      <c r="E265" s="1">
+        <v>3</v>
+      </c>
+      <c r="F265" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
@@ -5820,6 +5847,15 @@
       <c r="C266" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D266" s="1">
+        <v>0</v>
+      </c>
+      <c r="E266" s="1">
+        <v>8</v>
+      </c>
+      <c r="F266" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
@@ -5831,6 +5867,15 @@
       <c r="C267" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D267" s="1">
+        <v>4</v>
+      </c>
+      <c r="E267" s="1">
+        <v>7</v>
+      </c>
+      <c r="F267" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
@@ -5842,6 +5887,15 @@
       <c r="C268" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D268" s="1">
+        <v>7</v>
+      </c>
+      <c r="E268" s="1">
+        <v>3</v>
+      </c>
+      <c r="F268" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
@@ -5853,6 +5907,15 @@
       <c r="C269" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D269" s="1">
+        <v>3</v>
+      </c>
+      <c r="E269" s="1">
+        <v>7</v>
+      </c>
+      <c r="F269" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
@@ -5864,9 +5927,18 @@
       <c r="C270" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D270" s="1">
+        <v>8</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2</v>
+      </c>
+      <c r="F270" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
+      <c r="A271" s="3">
         <v>130</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -5874,6 +5946,15 @@
       </c>
       <c r="C271" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D271" s="3">
+        <v>5</v>
+      </c>
+      <c r="E271" s="3">
+        <v>6</v>
+      </c>
+      <c r="F271" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -6031,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3B15F-3342-4969-B5F8-468DF057C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A404A28-127D-4BA9-97A9-CE1C33F307CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:F271"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="F298" sqref="A281:F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5958,146 +5958,740 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>131</v>
+      </c>
       <c r="B272" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D272" s="1">
+        <v>7</v>
+      </c>
+      <c r="E272" s="1">
+        <v>8</v>
+      </c>
+      <c r="F272" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>131</v>
+      </c>
       <c r="B273" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D273" s="1">
+        <v>5</v>
+      </c>
+      <c r="E273" s="1">
+        <v>8</v>
+      </c>
+      <c r="F273" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>131</v>
+      </c>
       <c r="B274" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D274" s="1">
+        <v>8</v>
+      </c>
+      <c r="E274" s="1">
+        <v>7</v>
+      </c>
+      <c r="F274" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>131</v>
+      </c>
       <c r="B275" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D275" s="1">
+        <v>9</v>
+      </c>
+      <c r="E275" s="1">
+        <v>9</v>
+      </c>
+      <c r="F275" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>131</v>
+      </c>
       <c r="B276" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D276" s="1">
+        <v>7</v>
+      </c>
+      <c r="E276" s="1">
+        <v>7</v>
+      </c>
+      <c r="F276" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>131</v>
+      </c>
       <c r="B277" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D277" s="1">
+        <v>4</v>
+      </c>
+      <c r="E277" s="1">
+        <v>3</v>
+      </c>
+      <c r="F277" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>131</v>
+      </c>
       <c r="B278" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D278" s="1">
+        <v>5</v>
+      </c>
+      <c r="E278" s="1">
+        <v>6</v>
+      </c>
+      <c r="F278" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>131</v>
+      </c>
       <c r="B279" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D279" s="1">
+        <v>7</v>
+      </c>
+      <c r="E279" s="1">
+        <v>7</v>
+      </c>
+      <c r="F279" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="3">
+        <v>131</v>
+      </c>
       <c r="B280" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D280" s="3">
+        <v>9</v>
+      </c>
+      <c r="E280" s="3">
+        <v>7</v>
+      </c>
+      <c r="F280" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>132</v>
+      </c>
       <c r="B281" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D281" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E281" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F281" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>132</v>
+      </c>
       <c r="B282" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D282" s="1">
+        <v>5</v>
+      </c>
+      <c r="E282" s="1">
+        <v>8</v>
+      </c>
+      <c r="F282" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>132</v>
+      </c>
       <c r="B283" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D283" s="1">
+        <v>2</v>
+      </c>
+      <c r="E283" s="1">
+        <v>8</v>
+      </c>
+      <c r="F283" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>132</v>
+      </c>
       <c r="B284" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D284" s="1">
+        <v>8</v>
+      </c>
+      <c r="E284" s="1">
+        <v>4</v>
+      </c>
+      <c r="F284" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>132</v>
+      </c>
       <c r="B285" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D285" s="1">
+        <v>10</v>
+      </c>
+      <c r="E285" s="1">
+        <v>9</v>
+      </c>
+      <c r="F285" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>132</v>
+      </c>
       <c r="B286" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D286" s="1">
+        <v>6</v>
+      </c>
+      <c r="E286" s="1">
+        <v>9</v>
+      </c>
+      <c r="F286" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>132</v>
+      </c>
       <c r="B287" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D287" s="1">
+        <v>7</v>
+      </c>
+      <c r="E287" s="1">
+        <v>7</v>
+      </c>
+      <c r="F287" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>132</v>
+      </c>
       <c r="B288" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D288" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E288" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F288" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3">
+        <v>132</v>
+      </c>
       <c r="B289" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C289" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="3">
+        <v>0</v>
+      </c>
+      <c r="E289" s="3">
+        <v>4</v>
+      </c>
+      <c r="F289" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>133</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>4</v>
+      </c>
+      <c r="E290" s="1">
+        <v>9</v>
+      </c>
+      <c r="F290" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>133</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="1">
+        <v>5</v>
+      </c>
+      <c r="E291" s="1">
+        <v>7</v>
+      </c>
+      <c r="F291" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>133</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="1">
+        <v>2</v>
+      </c>
+      <c r="E292" s="1">
+        <v>8</v>
+      </c>
+      <c r="F292" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>133</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="1">
+        <v>7</v>
+      </c>
+      <c r="E293" s="1">
+        <v>7</v>
+      </c>
+      <c r="F293" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>133</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D294" s="1">
+        <v>4</v>
+      </c>
+      <c r="E294" s="1">
+        <v>7</v>
+      </c>
+      <c r="F294" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>133</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="1">
+        <v>5</v>
+      </c>
+      <c r="E295" s="1">
+        <v>7</v>
+      </c>
+      <c r="F295" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>133</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="1">
+        <v>9</v>
+      </c>
+      <c r="E296" s="1">
+        <v>6</v>
+      </c>
+      <c r="F296" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>133</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="1">
+        <v>8</v>
+      </c>
+      <c r="E297" s="1">
+        <v>8</v>
+      </c>
+      <c r="F297" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="3">
+        <v>133</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="8">
+        <v>6</v>
+      </c>
+      <c r="E298" s="8">
+        <v>8</v>
+      </c>
+      <c r="F298" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>134</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>134</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>134</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>134</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>134</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>134</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>134</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>134</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3">
+        <v>134</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>135</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>135</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>135</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>135</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>135</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>135</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>135</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>135</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>135</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6112,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView topLeftCell="D163" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173:F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9579,6 +10173,15 @@
       <c r="C173" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D173" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E173" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F173" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -9590,6 +10193,15 @@
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+      <c r="E174" s="1">
+        <v>8</v>
+      </c>
+      <c r="F174" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
@@ -9601,6 +10213,15 @@
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D175" s="1">
+        <v>2</v>
+      </c>
+      <c r="E175" s="1">
+        <v>8</v>
+      </c>
+      <c r="F175" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
@@ -9612,8 +10233,17 @@
       <c r="C176" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D176" s="1">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1">
+        <v>4</v>
+      </c>
+      <c r="F176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>220</v>
       </c>
@@ -9623,8 +10253,17 @@
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D177" s="1">
+        <v>10</v>
+      </c>
+      <c r="E177" s="1">
+        <v>9</v>
+      </c>
+      <c r="F177" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>220</v>
       </c>
@@ -9634,8 +10273,17 @@
       <c r="C178" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D178" s="1">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1">
+        <v>9</v>
+      </c>
+      <c r="F178" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>220</v>
       </c>
@@ -9645,8 +10293,17 @@
       <c r="C179" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D179" s="1">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1">
+        <v>7</v>
+      </c>
+      <c r="F179" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -9656,8 +10313,17 @@
       <c r="C180" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D180" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E180" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F180" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>220</v>
       </c>
@@ -9665,6 +10331,15 @@
         <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>4</v>
+      </c>
+      <c r="F181" s="3">
         <v>5</v>
       </c>
     </row>
@@ -9680,7 +10355,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A404A28-127D-4BA9-97A9-CE1C33F307CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD352725-A969-4199-B406-8E3158F98AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="F298" sqref="A281:F298"/>
+    <sheetView topLeftCell="C280" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6706,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="D163" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173:F181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10173,15 +10173,6 @@
       <c r="C173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D173" s="1">
-        <v>-99</v>
-      </c>
-      <c r="E173" s="1">
-        <v>-99</v>
-      </c>
-      <c r="F173" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -10193,15 +10184,6 @@
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D174" s="1">
-        <v>5</v>
-      </c>
-      <c r="E174" s="1">
-        <v>8</v>
-      </c>
-      <c r="F174" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
@@ -10213,15 +10195,6 @@
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="1">
-        <v>2</v>
-      </c>
-      <c r="E175" s="1">
-        <v>8</v>
-      </c>
-      <c r="F175" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
@@ -10233,17 +10206,8 @@
       <c r="C176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="1">
-        <v>8</v>
-      </c>
-      <c r="E176" s="1">
-        <v>4</v>
-      </c>
-      <c r="F176" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>220</v>
       </c>
@@ -10253,17 +10217,8 @@
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D177" s="1">
-        <v>10</v>
-      </c>
-      <c r="E177" s="1">
-        <v>9</v>
-      </c>
-      <c r="F177" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>220</v>
       </c>
@@ -10273,17 +10228,8 @@
       <c r="C178" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="1">
-        <v>6</v>
-      </c>
-      <c r="E178" s="1">
-        <v>9</v>
-      </c>
-      <c r="F178" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>220</v>
       </c>
@@ -10293,17 +10239,8 @@
       <c r="C179" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D179" s="1">
-        <v>7</v>
-      </c>
-      <c r="E179" s="1">
-        <v>7</v>
-      </c>
-      <c r="F179" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -10313,17 +10250,8 @@
       <c r="C180" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D180" s="1">
-        <v>-99</v>
-      </c>
-      <c r="E180" s="1">
-        <v>-99</v>
-      </c>
-      <c r="F180" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>220</v>
       </c>
@@ -10331,15 +10259,6 @@
         <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="3">
-        <v>0</v>
-      </c>
-      <c r="E181" s="3">
-        <v>4</v>
-      </c>
-      <c r="F181" s="3">
         <v>5</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD352725-A969-4199-B406-8E3158F98AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1804FB-217B-409C-8DC0-6494B5CF4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="C280" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324:E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6507,6 +6507,15 @@
       <c r="C299" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D299" s="1">
+        <v>9</v>
+      </c>
+      <c r="E299" s="1">
+        <v>9</v>
+      </c>
+      <c r="F299" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
@@ -6518,6 +6527,15 @@
       <c r="C300" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D300" s="1">
+        <v>5</v>
+      </c>
+      <c r="E300" s="1">
+        <v>10</v>
+      </c>
+      <c r="F300" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
@@ -6529,6 +6547,15 @@
       <c r="C301" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D301" s="1">
+        <v>8</v>
+      </c>
+      <c r="E301" s="1">
+        <v>6</v>
+      </c>
+      <c r="F301" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
@@ -6540,6 +6567,15 @@
       <c r="C302" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D302" s="1">
+        <v>4</v>
+      </c>
+      <c r="E302" s="1">
+        <v>8</v>
+      </c>
+      <c r="F302" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
@@ -6551,6 +6587,15 @@
       <c r="C303" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D303" s="1">
+        <v>2</v>
+      </c>
+      <c r="E303" s="1">
+        <v>10</v>
+      </c>
+      <c r="F303" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
@@ -6562,8 +6607,17 @@
       <c r="C304" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D304" s="1">
+        <v>5</v>
+      </c>
+      <c r="E304" s="1">
+        <v>8</v>
+      </c>
+      <c r="F304" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>134</v>
       </c>
@@ -6573,8 +6627,17 @@
       <c r="C305" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D305" s="1">
+        <v>7</v>
+      </c>
+      <c r="E305" s="1">
+        <v>9</v>
+      </c>
+      <c r="F305" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>134</v>
       </c>
@@ -6584,8 +6647,17 @@
       <c r="C306" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D306" s="1">
+        <v>3</v>
+      </c>
+      <c r="E306" s="1">
+        <v>10</v>
+      </c>
+      <c r="F306" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>134</v>
       </c>
@@ -6595,8 +6667,17 @@
       <c r="C307" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D307" s="3">
+        <v>9</v>
+      </c>
+      <c r="E307" s="3">
+        <v>8</v>
+      </c>
+      <c r="F307" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>135</v>
       </c>
@@ -6606,8 +6687,17 @@
       <c r="C308" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D308" s="1">
+        <v>1</v>
+      </c>
+      <c r="E308" s="1">
+        <v>8</v>
+      </c>
+      <c r="F308" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>135</v>
       </c>
@@ -6617,8 +6707,17 @@
       <c r="C309" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D309" s="1">
+        <v>3</v>
+      </c>
+      <c r="E309" s="1">
+        <v>5</v>
+      </c>
+      <c r="F309" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>135</v>
       </c>
@@ -6628,8 +6727,17 @@
       <c r="C310" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D310" s="1">
+        <v>2</v>
+      </c>
+      <c r="E310" s="1">
+        <v>8</v>
+      </c>
+      <c r="F310" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>135</v>
       </c>
@@ -6639,8 +6747,17 @@
       <c r="C311" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D311" s="1">
+        <v>5</v>
+      </c>
+      <c r="E311" s="1">
+        <v>7</v>
+      </c>
+      <c r="F311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>135</v>
       </c>
@@ -6650,8 +6767,17 @@
       <c r="C312" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D312" s="1">
+        <v>5</v>
+      </c>
+      <c r="E312" s="1">
+        <v>8</v>
+      </c>
+      <c r="F312" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>135</v>
       </c>
@@ -6661,8 +6787,17 @@
       <c r="C313" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D313" s="1">
+        <v>1</v>
+      </c>
+      <c r="E313" s="1">
+        <v>7</v>
+      </c>
+      <c r="F313" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>135</v>
       </c>
@@ -6672,8 +6807,17 @@
       <c r="C314" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D314" s="1">
+        <v>1</v>
+      </c>
+      <c r="E314" s="1">
+        <v>10</v>
+      </c>
+      <c r="F314" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>135</v>
       </c>
@@ -6683,15 +6827,609 @@
       <c r="C315" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="1">
+      <c r="D315" s="1">
+        <v>2</v>
+      </c>
+      <c r="E315" s="1">
+        <v>7</v>
+      </c>
+      <c r="F315" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3">
         <v>135</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="3">
+        <v>4</v>
+      </c>
+      <c r="E316" s="3">
+        <v>7</v>
+      </c>
+      <c r="F316" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>136</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="1">
+        <v>3</v>
+      </c>
+      <c r="E317" s="1">
+        <v>8</v>
+      </c>
+      <c r="F317" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>136</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="1">
+        <v>8</v>
+      </c>
+      <c r="E318" s="1">
+        <v>9</v>
+      </c>
+      <c r="F318" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>136</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="1">
+        <v>6</v>
+      </c>
+      <c r="E319" s="1">
+        <v>8</v>
+      </c>
+      <c r="F319" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>136</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E320" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F320" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>136</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321" s="1">
+        <v>5</v>
+      </c>
+      <c r="E321" s="1">
+        <v>9</v>
+      </c>
+      <c r="F321" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>136</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E322" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F322" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>136</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" s="1">
+        <v>8</v>
+      </c>
+      <c r="E323" s="1">
+        <v>7</v>
+      </c>
+      <c r="F323" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>136</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E324" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F324" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="3">
+        <v>136</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="3">
+        <v>8</v>
+      </c>
+      <c r="E325" s="3">
+        <v>8</v>
+      </c>
+      <c r="F325" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>137</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>137</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>137</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>137</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>137</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>137</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>137</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>137</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="3">
+        <v>137</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>138</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>138</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>138</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>138</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>138</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>138</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>138</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>138</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="3">
+        <v>138</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>139</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>139</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>139</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>139</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>139</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>139</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>139</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>139</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="3">
+        <v>139</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>140</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>140</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>140</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>140</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>140</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>140</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>140</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>140</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="3">
+        <v>140</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6704,10 +7442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10173,6 +10911,15 @@
       <c r="C173" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D173" s="1">
+        <v>2</v>
+      </c>
+      <c r="E173" s="1">
+        <v>8</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -10184,6 +10931,15 @@
       <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D174" s="1">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1">
+        <v>6</v>
+      </c>
+      <c r="F174" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
@@ -10195,6 +10951,15 @@
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D175" s="1">
+        <v>2</v>
+      </c>
+      <c r="E175" s="1">
+        <v>10</v>
+      </c>
+      <c r="F175" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
@@ -10206,8 +10971,17 @@
       <c r="C176" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D176" s="1">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1">
+        <v>7</v>
+      </c>
+      <c r="F176" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>220</v>
       </c>
@@ -10217,8 +10991,17 @@
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D177" s="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="1">
+        <v>8</v>
+      </c>
+      <c r="F177" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>220</v>
       </c>
@@ -10228,8 +11011,17 @@
       <c r="C178" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D178" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1">
+        <v>10</v>
+      </c>
+      <c r="F178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>220</v>
       </c>
@@ -10239,8 +11031,17 @@
       <c r="C179" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -10250,8 +11051,17 @@
       <c r="C180" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D180" s="1">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>10</v>
+      </c>
+      <c r="F180" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>220</v>
       </c>
@@ -10259,6 +11069,2076 @@
         <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="3">
+        <v>5</v>
+      </c>
+      <c r="E181" s="3">
+        <v>8</v>
+      </c>
+      <c r="F181" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>221</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="1">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1">
+        <v>9</v>
+      </c>
+      <c r="F182" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>221</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="1">
+        <v>7</v>
+      </c>
+      <c r="E183" s="1">
+        <v>8</v>
+      </c>
+      <c r="F183" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>221</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="1">
+        <v>2</v>
+      </c>
+      <c r="E184" s="1">
+        <v>10</v>
+      </c>
+      <c r="F184" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>221</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="1">
+        <v>7</v>
+      </c>
+      <c r="F185" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>221</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1">
+        <v>9</v>
+      </c>
+      <c r="E186" s="1">
+        <v>9</v>
+      </c>
+      <c r="F186" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>221</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="1">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>8</v>
+      </c>
+      <c r="F187" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>221</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1">
+        <v>10</v>
+      </c>
+      <c r="E188" s="1">
+        <v>7</v>
+      </c>
+      <c r="F188" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>221</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>8</v>
+      </c>
+      <c r="E189" s="1">
+        <v>9</v>
+      </c>
+      <c r="F189" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>221</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="3">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3">
+        <v>7</v>
+      </c>
+      <c r="F190" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>222</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>222</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>222</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>222</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>222</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>222</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>222</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>222</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>222</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>223</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>223</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>223</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>223</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>223</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>223</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>223</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>223</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="3">
+        <v>223</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>224</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>224</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>224</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>224</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>224</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>224</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>224</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>224</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="3">
+        <v>224</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>225</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>225</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>225</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>225</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>225</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>225</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>225</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>225</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>226</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>226</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>226</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>226</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>226</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>226</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="3">
+        <v>226</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>227</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>227</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>227</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>227</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>227</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>227</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>227</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>227</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="3">
+        <v>227</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>228</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>228</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>228</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>228</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>228</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>228</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>228</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>228</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="3">
+        <v>228</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>229</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>229</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>229</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>229</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>229</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>229</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>229</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>229</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="3">
+        <v>229</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>230</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>230</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>230</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>230</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>230</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>230</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>230</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>230</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="3">
+        <v>230</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>231</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>231</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>231</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>231</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>231</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>231</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>231</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>231</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="3">
+        <v>231</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>232</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>232</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>232</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>232</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>232</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>232</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>232</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>232</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="3">
+        <v>232</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>233</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>233</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>233</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>233</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>233</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>233</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>233</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>233</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="3">
+        <v>233</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>234</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>234</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>234</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>234</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>234</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>234</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>234</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>234</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="3">
+        <v>234</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>235</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>235</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>235</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>235</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>235</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>235</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>235</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>235</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="3">
+        <v>235</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>236</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>236</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>236</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>236</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>236</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>236</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>236</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>236</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="3">
+        <v>236</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>237</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>237</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>237</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>237</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>237</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>237</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>237</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>237</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="3">
+        <v>237</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>238</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>238</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>238</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>238</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>238</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>238</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>238</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>238</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="3">
+        <v>238</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>239</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>239</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>239</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>239</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>239</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>239</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>239</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>239</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="3">
+        <v>239</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>240</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>240</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>240</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>240</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>240</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>240</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>240</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>240</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="3">
+        <v>240</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1804FB-217B-409C-8DC0-6494B5CF4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92577C-D827-4BEC-AB1F-AC93757A4158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324:E324"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7047,6 +7047,15 @@
       <c r="C326" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D326" s="1">
+        <v>7</v>
+      </c>
+      <c r="E326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F326" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
@@ -7058,6 +7067,15 @@
       <c r="C327" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D327" s="1">
+        <v>0</v>
+      </c>
+      <c r="E327" s="1">
+        <v>9</v>
+      </c>
+      <c r="F327" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
@@ -7069,6 +7087,15 @@
       <c r="C328" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D328" s="1">
+        <v>1</v>
+      </c>
+      <c r="E328" s="1">
+        <v>5</v>
+      </c>
+      <c r="F328" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
@@ -7080,6 +7107,15 @@
       <c r="C329" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D329" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E329" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F329" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
@@ -7091,6 +7127,15 @@
       <c r="C330" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D330" s="1">
+        <v>0</v>
+      </c>
+      <c r="E330" s="1">
+        <v>9</v>
+      </c>
+      <c r="F330" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
@@ -7102,6 +7147,15 @@
       <c r="C331" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D331" s="1">
+        <v>0</v>
+      </c>
+      <c r="E331" s="1">
+        <v>10</v>
+      </c>
+      <c r="F331" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
@@ -7113,6 +7167,15 @@
       <c r="C332" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D332" s="1">
+        <v>10</v>
+      </c>
+      <c r="E332" s="1">
+        <v>4</v>
+      </c>
+      <c r="F332" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
@@ -7124,6 +7187,15 @@
       <c r="C333" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D333" s="1">
+        <v>10</v>
+      </c>
+      <c r="E333" s="1">
+        <v>6</v>
+      </c>
+      <c r="F333" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="334" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
@@ -7134,6 +7206,15 @@
       </c>
       <c r="C334" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D334" s="3">
+        <v>10</v>
+      </c>
+      <c r="E334" s="3">
+        <v>7</v>
+      </c>
+      <c r="F334" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
@@ -7444,8 +7525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11271,6 +11352,15 @@
       <c r="C191" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -11282,8 +11372,17 @@
       <c r="C192" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D192" s="1">
+        <v>9</v>
+      </c>
+      <c r="E192" s="1">
+        <v>8</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>222</v>
       </c>
@@ -11293,8 +11392,17 @@
       <c r="C193" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D193" s="1">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>222</v>
       </c>
@@ -11304,8 +11412,17 @@
       <c r="C194" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D194" s="1">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1">
+        <v>9</v>
+      </c>
+      <c r="F194" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>222</v>
       </c>
@@ -11315,8 +11432,17 @@
       <c r="C195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D195" s="1">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1">
+        <v>8</v>
+      </c>
+      <c r="F195" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>222</v>
       </c>
@@ -11326,8 +11452,11 @@
       <c r="C196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D196" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>222</v>
       </c>
@@ -11338,7 +11467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>222</v>
       </c>
@@ -11349,7 +11478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>222</v>
       </c>
@@ -11360,7 +11489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>223</v>
       </c>
@@ -11370,8 +11499,17 @@
       <c r="C200" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D200" s="1">
+        <v>3</v>
+      </c>
+      <c r="E200" s="1">
+        <v>4</v>
+      </c>
+      <c r="F200" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>223</v>
       </c>
@@ -11381,8 +11519,17 @@
       <c r="C201" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D201" s="1">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1">
+        <v>8</v>
+      </c>
+      <c r="F201" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>223</v>
       </c>
@@ -11392,8 +11539,17 @@
       <c r="C202" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D202" s="1">
+        <v>8</v>
+      </c>
+      <c r="E202" s="1">
+        <v>9</v>
+      </c>
+      <c r="F202" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>223</v>
       </c>
@@ -11403,8 +11559,17 @@
       <c r="C203" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D203" s="1">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1">
+        <v>9</v>
+      </c>
+      <c r="F203" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>223</v>
       </c>
@@ -11414,8 +11579,17 @@
       <c r="C204" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D204" s="1">
+        <v>5</v>
+      </c>
+      <c r="E204" s="1">
+        <v>7</v>
+      </c>
+      <c r="F204" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>223</v>
       </c>
@@ -11425,8 +11599,17 @@
       <c r="C205" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D205" s="1">
+        <v>8</v>
+      </c>
+      <c r="E205" s="1">
+        <v>4</v>
+      </c>
+      <c r="F205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>223</v>
       </c>
@@ -11436,8 +11619,17 @@
       <c r="C206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D206" s="1">
+        <v>3</v>
+      </c>
+      <c r="E206" s="1">
+        <v>9</v>
+      </c>
+      <c r="F206" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>223</v>
       </c>
@@ -11447,8 +11639,17 @@
       <c r="C207" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D207" s="1">
+        <v>7</v>
+      </c>
+      <c r="E207" s="1">
+        <v>9</v>
+      </c>
+      <c r="F207" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>223</v>
       </c>
@@ -11457,6 +11658,15 @@
       </c>
       <c r="C208" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D208" s="3">
+        <v>9</v>
+      </c>
+      <c r="E208" s="3">
+        <v>9</v>
+      </c>
+      <c r="F208" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92577C-D827-4BEC-AB1F-AC93757A4158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5782B-9407-414F-9C0F-F6B87D54F103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
       <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
@@ -7525,8 +7525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11669,7 +11669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>224</v>
       </c>
@@ -11679,8 +11679,17 @@
       <c r="C209" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D209" s="1">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1">
+        <v>9</v>
+      </c>
+      <c r="F209" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>224</v>
       </c>
@@ -11690,8 +11699,17 @@
       <c r="C210" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D210" s="1">
+        <v>7</v>
+      </c>
+      <c r="E210" s="1">
+        <v>10</v>
+      </c>
+      <c r="F210" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>224</v>
       </c>
@@ -11701,8 +11719,17 @@
       <c r="C211" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D211" s="1">
+        <v>4</v>
+      </c>
+      <c r="E211" s="1">
+        <v>7</v>
+      </c>
+      <c r="F211" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>224</v>
       </c>
@@ -11712,8 +11739,17 @@
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D212" s="1">
+        <v>4</v>
+      </c>
+      <c r="E212" s="1">
+        <v>7</v>
+      </c>
+      <c r="F212" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>224</v>
       </c>
@@ -11723,8 +11759,17 @@
       <c r="C213" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D213" s="1">
+        <v>4</v>
+      </c>
+      <c r="E213" s="1">
+        <v>8</v>
+      </c>
+      <c r="F213" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>224</v>
       </c>
@@ -11734,8 +11779,17 @@
       <c r="C214" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D214" s="1">
+        <v>2</v>
+      </c>
+      <c r="E214" s="1">
+        <v>8</v>
+      </c>
+      <c r="F214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>224</v>
       </c>
@@ -11745,8 +11799,17 @@
       <c r="C215" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>7</v>
+      </c>
+      <c r="F215" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>224</v>
       </c>
@@ -11756,8 +11819,17 @@
       <c r="C216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>9</v>
+      </c>
+      <c r="F216" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>224</v>
       </c>
@@ -11767,8 +11839,17 @@
       <c r="C217" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D217" s="3">
+        <v>8</v>
+      </c>
+      <c r="E217" s="3">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>225</v>
       </c>
@@ -11779,7 +11860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>225</v>
       </c>
@@ -11790,7 +11871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>225</v>
       </c>
@@ -11801,7 +11882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>225</v>
       </c>
@@ -11812,7 +11893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>225</v>
       </c>
@@ -11823,7 +11904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>225</v>
       </c>
@@ -11834,7 +11915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>225</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5782B-9407-414F-9C0F-F6B87D54F103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AB385-8CD7-4E01-9F45-2CBAAFD0605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -523,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+    <sheetView topLeftCell="A339" workbookViewId="0">
       <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
@@ -7525,8 +7534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11455,6 +11464,12 @@
       <c r="D196" s="1">
         <v>8</v>
       </c>
+      <c r="E196" s="1">
+        <v>7</v>
+      </c>
+      <c r="F196" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -11466,6 +11481,15 @@
       <c r="C197" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D197" s="1">
+        <v>2</v>
+      </c>
+      <c r="E197" s="1">
+        <v>10</v>
+      </c>
+      <c r="F197" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -11477,6 +11501,15 @@
       <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D198" s="1">
+        <v>10</v>
+      </c>
+      <c r="E198" s="1">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
@@ -11486,6 +11519,15 @@
         <v>15</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="3">
+        <v>5</v>
+      </c>
+      <c r="E199" s="3">
+        <v>9</v>
+      </c>
+      <c r="F199" s="3">
         <v>5</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AB385-8CD7-4E01-9F45-2CBAAFD0605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3858300-85A6-4C04-AD9D-8A61817D68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,12 +205,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
+    <sheetView topLeftCell="A323" workbookViewId="0">
       <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
@@ -5766,23 +5760,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="8">
+    <row r="262" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="3">
         <v>129</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C262" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D262" s="8">
-        <v>10</v>
-      </c>
-      <c r="E262" s="8">
-        <v>7</v>
-      </c>
-      <c r="F262" s="8">
+      <c r="C262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="3">
+        <v>10</v>
+      </c>
+      <c r="E262" s="3">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3">
         <v>7</v>
       </c>
     </row>
@@ -6486,23 +6480,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>133</v>
       </c>
-      <c r="B298" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D298" s="8">
-        <v>6</v>
-      </c>
-      <c r="E298" s="8">
-        <v>8</v>
-      </c>
-      <c r="F298" s="8">
+      <c r="B298" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="3">
+        <v>6</v>
+      </c>
+      <c r="E298" s="3">
+        <v>8</v>
+      </c>
+      <c r="F298" s="3">
         <v>7</v>
       </c>
     </row>
@@ -7534,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7908,23 +7902,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>202</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
         <v>9</v>
       </c>
     </row>
@@ -8628,23 +8622,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>206</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3">
         <v>1</v>
       </c>
-      <c r="E55" s="8">
-        <v>10</v>
-      </c>
-      <c r="F55" s="8">
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3">
         <v>7</v>
       </c>
     </row>
@@ -9355,7 +9349,7 @@
       <c r="B91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="3">
@@ -10072,10 +10066,10 @@
       <c r="A127" s="3">
         <v>214</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="3">
@@ -10798,7 +10792,7 @@
       <c r="B163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="3">
@@ -11901,6 +11895,15 @@
       <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D218" s="1">
+        <v>7</v>
+      </c>
+      <c r="E218" s="1">
+        <v>4</v>
+      </c>
+      <c r="F218" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
@@ -11912,6 +11915,15 @@
       <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D219" s="1">
+        <v>8</v>
+      </c>
+      <c r="E219" s="1">
+        <v>6</v>
+      </c>
+      <c r="F219" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
@@ -11923,6 +11935,15 @@
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1">
+        <v>10</v>
+      </c>
+      <c r="F220" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
@@ -11934,6 +11955,15 @@
       <c r="C221" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D221" s="1">
+        <v>4</v>
+      </c>
+      <c r="E221" s="1">
+        <v>10</v>
+      </c>
+      <c r="F221" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
@@ -11945,6 +11975,15 @@
       <c r="C222" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>10</v>
+      </c>
+      <c r="F222" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
@@ -11956,6 +11995,15 @@
       <c r="C223" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D223" s="1">
+        <v>8</v>
+      </c>
+      <c r="E223" s="1">
+        <v>8</v>
+      </c>
+      <c r="F223" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
@@ -11967,8 +12015,17 @@
       <c r="C224" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>5</v>
+      </c>
+      <c r="F224" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -11978,8 +12035,17 @@
       <c r="C225" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D225" s="1">
+        <v>7</v>
+      </c>
+      <c r="E225" s="1">
+        <v>9</v>
+      </c>
+      <c r="F225" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -11989,8 +12055,17 @@
       <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D226" s="3">
+        <v>9</v>
+      </c>
+      <c r="E226" s="3">
+        <v>5</v>
+      </c>
+      <c r="F226" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -12001,7 +12076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12012,7 +12087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>226</v>
       </c>
@@ -12023,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>226</v>
       </c>
@@ -12034,7 +12109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>226</v>
       </c>
@@ -12045,7 +12120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>226</v>
       </c>
@@ -12056,7 +12131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>226</v>
       </c>
@@ -12067,7 +12142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>226</v>
       </c>
@@ -12078,7 +12153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>226</v>
       </c>
@@ -12089,7 +12164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>227</v>
       </c>
@@ -12100,7 +12175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>227</v>
       </c>
@@ -12111,7 +12186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>227</v>
       </c>
@@ -12122,7 +12197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>227</v>
       </c>
@@ -12133,7 +12208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>227</v>
       </c>
@@ -12379,10 +12454,10 @@
       <c r="A262" s="3">
         <v>229</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12775,10 +12850,10 @@
       <c r="A298" s="3">
         <v>233</v>
       </c>
-      <c r="B298" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C298" s="8" t="s">
+      <c r="B298" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3858300-85A6-4C04-AD9D-8A61817D68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80B1A4-C45A-452F-9E57-4980CDD9635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="28">
   <si>
     <t>Event</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>nicht ausgeführt</t>
   </si>
 </sst>
 </file>
@@ -7528,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12059,7 +12062,7 @@
         <v>9</v>
       </c>
       <c r="E226" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F226" s="3">
         <v>6</v>
@@ -12075,6 +12078,15 @@
       <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D227" s="1">
+        <v>8</v>
+      </c>
+      <c r="E227" s="1">
+        <v>9</v>
+      </c>
+      <c r="F227" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
@@ -12086,6 +12098,15 @@
       <c r="C228" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D228" s="1">
+        <v>4</v>
+      </c>
+      <c r="E228" s="1">
+        <v>5</v>
+      </c>
+      <c r="F228" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
@@ -12097,6 +12118,15 @@
       <c r="C229" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D229" s="1">
+        <v>6</v>
+      </c>
+      <c r="E229" s="1">
+        <v>8</v>
+      </c>
+      <c r="F229" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
@@ -12108,6 +12138,15 @@
       <c r="C230" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D230" s="1">
+        <v>6</v>
+      </c>
+      <c r="E230" s="1">
+        <v>8</v>
+      </c>
+      <c r="F230" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
@@ -12119,6 +12158,15 @@
       <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D231" s="1">
+        <v>7</v>
+      </c>
+      <c r="E231" s="1">
+        <v>9</v>
+      </c>
+      <c r="F231" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
@@ -12130,6 +12178,15 @@
       <c r="C232" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D232" s="1">
+        <v>5</v>
+      </c>
+      <c r="E232" s="1">
+        <v>9</v>
+      </c>
+      <c r="F232" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
@@ -12141,6 +12198,15 @@
       <c r="C233" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D233" s="1">
+        <v>-88</v>
+      </c>
+      <c r="E233" s="1">
+        <v>-88</v>
+      </c>
+      <c r="F233" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
@@ -12152,6 +12218,15 @@
       <c r="C234" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D234" s="1">
+        <v>6</v>
+      </c>
+      <c r="E234" s="1">
+        <v>9</v>
+      </c>
+      <c r="F234" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
@@ -12162,6 +12237,15 @@
       </c>
       <c r="C235" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D235" s="3">
+        <v>7</v>
+      </c>
+      <c r="E235" s="3">
+        <v>6</v>
+      </c>
+      <c r="F235" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -13559,27 +13643,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C720AFE-1C4C-4865-B184-FC3630399157}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>-99</v>
+        <v>-88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
+        <v>-99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>-100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Segolei\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80B1A4-C45A-452F-9E57-4980CDD9635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D319A1D-90CA-4B03-A4FC-17943987D7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
     <sheet name="Rating Experts" sheetId="12" r:id="rId2"/>
     <sheet name="Legende" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -533,17 +524,17 @@
       <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -563,7 +554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -583,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -603,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -623,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -643,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -663,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -683,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -703,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -723,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>101</v>
       </c>
@@ -743,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -763,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -783,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -803,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -823,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -843,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -863,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -883,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -903,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -923,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -943,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>103</v>
       </c>
@@ -963,7 +954,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>103</v>
       </c>
@@ -983,7 +974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>103</v>
       </c>
@@ -1003,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -1023,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1043,7 +1034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -1063,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1083,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>103</v>
       </c>
@@ -1103,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>104</v>
       </c>
@@ -1123,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -1143,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>104</v>
       </c>
@@ -1163,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>104</v>
       </c>
@@ -1183,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>104</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>104</v>
       </c>
@@ -1223,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>104</v>
       </c>
@@ -1243,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>104</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -1283,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>105</v>
       </c>
@@ -1303,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>105</v>
       </c>
@@ -1323,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>105</v>
       </c>
@@ -1343,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>105</v>
       </c>
@@ -1363,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105</v>
       </c>
@@ -1383,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>105</v>
       </c>
@@ -1403,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -1423,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -1443,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>105</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>106</v>
       </c>
@@ -1483,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>106</v>
       </c>
@@ -1503,7 +1494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -1523,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>106</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>106</v>
       </c>
@@ -1563,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>106</v>
       </c>
@@ -1583,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>106</v>
       </c>
@@ -1603,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>106</v>
       </c>
@@ -1623,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -1643,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>107</v>
       </c>
@@ -1663,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>107</v>
       </c>
@@ -1683,7 +1674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>107</v>
       </c>
@@ -1703,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>107</v>
       </c>
@@ -1723,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>107</v>
       </c>
@@ -1743,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>107</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>107</v>
       </c>
@@ -1783,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>107</v>
       </c>
@@ -1803,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>107</v>
       </c>
@@ -1823,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -1843,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -1863,7 +1854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>108</v>
       </c>
@@ -1883,7 +1874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>108</v>
       </c>
@@ -1903,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>108</v>
       </c>
@@ -1923,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>108</v>
       </c>
@@ -1943,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>108</v>
       </c>
@@ -1963,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>108</v>
       </c>
@@ -1983,7 +1974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>108</v>
       </c>
@@ -2003,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>109</v>
       </c>
@@ -2023,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>109</v>
       </c>
@@ -2043,7 +2034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>109</v>
       </c>
@@ -2063,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>109</v>
       </c>
@@ -2083,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>109</v>
       </c>
@@ -2103,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>109</v>
       </c>
@@ -2123,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -2143,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>109</v>
       </c>
@@ -2163,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>109</v>
       </c>
@@ -2183,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>110</v>
       </c>
@@ -2203,7 +2194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>110</v>
       </c>
@@ -2223,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>110</v>
       </c>
@@ -2243,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>110</v>
       </c>
@@ -2263,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110</v>
       </c>
@@ -2283,7 +2274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -2303,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -2323,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110</v>
       </c>
@@ -2343,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>110</v>
       </c>
@@ -2363,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>111</v>
       </c>
@@ -2383,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>111</v>
       </c>
@@ -2403,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>111</v>
       </c>
@@ -2423,7 +2414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>111</v>
       </c>
@@ -2443,7 +2434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111</v>
       </c>
@@ -2463,7 +2454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2483,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>111</v>
       </c>
@@ -2503,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111</v>
       </c>
@@ -2523,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>111</v>
       </c>
@@ -2543,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>112</v>
       </c>
@@ -2563,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>112</v>
       </c>
@@ -2583,7 +2574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>112</v>
       </c>
@@ -2603,7 +2594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>112</v>
       </c>
@@ -2623,7 +2614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>112</v>
       </c>
@@ -2643,7 +2634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -2663,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>112</v>
       </c>
@@ -2683,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -2703,7 +2694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>112</v>
       </c>
@@ -2723,7 +2714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -2743,7 +2734,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -2763,7 +2754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -2783,7 +2774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -2803,7 +2794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2823,7 +2814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2843,7 +2834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -2863,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -2883,7 +2874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>113</v>
       </c>
@@ -2903,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -2923,7 +2914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -2943,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>114</v>
       </c>
@@ -2963,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>114</v>
       </c>
@@ -2983,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>114</v>
       </c>
@@ -3003,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>114</v>
       </c>
@@ -3023,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>114</v>
       </c>
@@ -3043,7 +3034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -3063,7 +3054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>114</v>
       </c>
@@ -3083,7 +3074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>115</v>
       </c>
@@ -3103,7 +3094,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>115</v>
       </c>
@@ -3123,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>115</v>
       </c>
@@ -3143,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>115</v>
       </c>
@@ -3163,7 +3154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -3183,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>115</v>
       </c>
@@ -3203,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>115</v>
       </c>
@@ -3223,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>115</v>
       </c>
@@ -3243,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>115</v>
       </c>
@@ -3263,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>116</v>
       </c>
@@ -3283,7 +3274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3303,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>116</v>
       </c>
@@ -3323,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>116</v>
       </c>
@@ -3343,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>116</v>
       </c>
@@ -3363,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>116</v>
       </c>
@@ -3383,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>116</v>
       </c>
@@ -3403,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>116</v>
       </c>
@@ -3423,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>116</v>
       </c>
@@ -3443,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>117</v>
       </c>
@@ -3463,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>117</v>
       </c>
@@ -3483,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>117</v>
       </c>
@@ -3503,7 +3494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>117</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>117</v>
       </c>
@@ -3543,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>117</v>
       </c>
@@ -3563,7 +3554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>117</v>
       </c>
@@ -3583,7 +3574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>117</v>
       </c>
@@ -3603,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>117</v>
       </c>
@@ -3623,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>118</v>
       </c>
@@ -3643,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>118</v>
       </c>
@@ -3663,7 +3654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>118</v>
       </c>
@@ -3683,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>118</v>
       </c>
@@ -3703,7 +3694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>118</v>
       </c>
@@ -3723,7 +3714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>118</v>
       </c>
@@ -3743,7 +3734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>118</v>
       </c>
@@ -3763,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>118</v>
       </c>
@@ -3783,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>118</v>
       </c>
@@ -3803,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>119</v>
       </c>
@@ -3823,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>119</v>
       </c>
@@ -3843,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>119</v>
       </c>
@@ -3863,7 +3854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>119</v>
       </c>
@@ -3883,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>119</v>
       </c>
@@ -3903,7 +3894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>119</v>
       </c>
@@ -3923,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>119</v>
       </c>
@@ -3943,7 +3934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>119</v>
       </c>
@@ -3963,7 +3954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>119</v>
       </c>
@@ -3983,7 +3974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>120</v>
       </c>
@@ -4003,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>120</v>
       </c>
@@ -4023,7 +4014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>120</v>
       </c>
@@ -4043,7 +4034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>120</v>
       </c>
@@ -4063,7 +4054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>120</v>
       </c>
@@ -4083,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>120</v>
       </c>
@@ -4103,7 +4094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>120</v>
       </c>
@@ -4123,7 +4114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>120</v>
       </c>
@@ -4143,7 +4134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>120</v>
       </c>
@@ -4163,7 +4154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>121</v>
       </c>
@@ -4183,7 +4174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>121</v>
       </c>
@@ -4203,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>121</v>
       </c>
@@ -4223,7 +4214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>121</v>
       </c>
@@ -4243,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>121</v>
       </c>
@@ -4263,7 +4254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>121</v>
       </c>
@@ -4283,7 +4274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>121</v>
       </c>
@@ -4303,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>121</v>
       </c>
@@ -4323,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>121</v>
       </c>
@@ -4343,7 +4334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>122</v>
       </c>
@@ -4363,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>122</v>
       </c>
@@ -4383,7 +4374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>122</v>
       </c>
@@ -4403,7 +4394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>122</v>
       </c>
@@ -4423,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>122</v>
       </c>
@@ -4443,7 +4434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>122</v>
       </c>
@@ -4463,7 +4454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>122</v>
       </c>
@@ -4483,7 +4474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>122</v>
       </c>
@@ -4503,7 +4494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>122</v>
       </c>
@@ -4523,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>123</v>
       </c>
@@ -4543,7 +4534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>123</v>
       </c>
@@ -4563,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>123</v>
       </c>
@@ -4583,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>123</v>
       </c>
@@ -4603,7 +4594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>123</v>
       </c>
@@ -4623,7 +4614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>123</v>
       </c>
@@ -4643,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>123</v>
       </c>
@@ -4663,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>123</v>
       </c>
@@ -4683,7 +4674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>123</v>
       </c>
@@ -4703,7 +4694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>124</v>
       </c>
@@ -4723,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>124</v>
       </c>
@@ -4743,7 +4734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>124</v>
       </c>
@@ -4763,7 +4754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>124</v>
       </c>
@@ -4783,7 +4774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>124</v>
       </c>
@@ -4803,7 +4794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>124</v>
       </c>
@@ -4823,7 +4814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>124</v>
       </c>
@@ -4843,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>124</v>
       </c>
@@ -4863,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>124</v>
       </c>
@@ -4883,7 +4874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>125</v>
       </c>
@@ -4903,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>125</v>
       </c>
@@ -4923,7 +4914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>125</v>
       </c>
@@ -4943,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>125</v>
       </c>
@@ -4963,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>125</v>
       </c>
@@ -4983,7 +4974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>125</v>
       </c>
@@ -5003,7 +4994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>125</v>
       </c>
@@ -5023,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>125</v>
       </c>
@@ -5043,7 +5034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>125</v>
       </c>
@@ -5063,7 +5054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>126</v>
       </c>
@@ -5083,7 +5074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>126</v>
       </c>
@@ -5103,7 +5094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>126</v>
       </c>
@@ -5123,7 +5114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>126</v>
       </c>
@@ -5143,7 +5134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>126</v>
       </c>
@@ -5163,7 +5154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>126</v>
       </c>
@@ -5183,7 +5174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>126</v>
       </c>
@@ -5203,7 +5194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>126</v>
       </c>
@@ -5223,7 +5214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>126</v>
       </c>
@@ -5243,7 +5234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>127</v>
       </c>
@@ -5263,7 +5254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>127</v>
       </c>
@@ -5283,7 +5274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>127</v>
       </c>
@@ -5303,7 +5294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>127</v>
       </c>
@@ -5323,7 +5314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>127</v>
       </c>
@@ -5343,7 +5334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>127</v>
       </c>
@@ -5363,7 +5354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>127</v>
       </c>
@@ -5383,7 +5374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>127</v>
       </c>
@@ -5403,7 +5394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>127</v>
       </c>
@@ -5423,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>128</v>
       </c>
@@ -5443,7 +5434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>128</v>
       </c>
@@ -5463,7 +5454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>128</v>
       </c>
@@ -5483,7 +5474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>128</v>
       </c>
@@ -5503,7 +5494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>128</v>
       </c>
@@ -5523,7 +5514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>128</v>
       </c>
@@ -5543,7 +5534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>128</v>
       </c>
@@ -5563,7 +5554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>128</v>
       </c>
@@ -5583,7 +5574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>128</v>
       </c>
@@ -5603,7 +5594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>129</v>
       </c>
@@ -5623,7 +5614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>129</v>
       </c>
@@ -5643,7 +5634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>129</v>
       </c>
@@ -5663,7 +5654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>129</v>
       </c>
@@ -5683,7 +5674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>129</v>
       </c>
@@ -5703,7 +5694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>129</v>
       </c>
@@ -5723,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>129</v>
       </c>
@@ -5743,7 +5734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>129</v>
       </c>
@@ -5763,7 +5754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>129</v>
       </c>
@@ -5783,7 +5774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>130</v>
       </c>
@@ -5803,7 +5794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>130</v>
       </c>
@@ -5823,7 +5814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>130</v>
       </c>
@@ -5843,7 +5834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>130</v>
       </c>
@@ -5863,7 +5854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>130</v>
       </c>
@@ -5883,7 +5874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>130</v>
       </c>
@@ -5903,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>130</v>
       </c>
@@ -5923,7 +5914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>130</v>
       </c>
@@ -5943,7 +5934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>130</v>
       </c>
@@ -5963,7 +5954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>131</v>
       </c>
@@ -5983,7 +5974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>131</v>
       </c>
@@ -6003,7 +5994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>131</v>
       </c>
@@ -6023,7 +6014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>131</v>
       </c>
@@ -6043,7 +6034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>131</v>
       </c>
@@ -6063,7 +6054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>131</v>
       </c>
@@ -6083,7 +6074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>131</v>
       </c>
@@ -6103,7 +6094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>131</v>
       </c>
@@ -6123,7 +6114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>131</v>
       </c>
@@ -6143,7 +6134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>132</v>
       </c>
@@ -6163,7 +6154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>132</v>
       </c>
@@ -6183,7 +6174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>132</v>
       </c>
@@ -6203,7 +6194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>132</v>
       </c>
@@ -6223,7 +6214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>132</v>
       </c>
@@ -6243,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>132</v>
       </c>
@@ -6263,7 +6254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>132</v>
       </c>
@@ -6283,7 +6274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>132</v>
       </c>
@@ -6303,7 +6294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>132</v>
       </c>
@@ -6323,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>133</v>
       </c>
@@ -6343,7 +6334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>133</v>
       </c>
@@ -6363,7 +6354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>133</v>
       </c>
@@ -6383,7 +6374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>133</v>
       </c>
@@ -6403,7 +6394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>133</v>
       </c>
@@ -6423,7 +6414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>133</v>
       </c>
@@ -6443,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>133</v>
       </c>
@@ -6463,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>133</v>
       </c>
@@ -6483,7 +6474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>133</v>
       </c>
@@ -6503,7 +6494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>134</v>
       </c>
@@ -6523,7 +6514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>134</v>
       </c>
@@ -6543,7 +6534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>134</v>
       </c>
@@ -6563,7 +6554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>134</v>
       </c>
@@ -6583,7 +6574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>134</v>
       </c>
@@ -6603,7 +6594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>134</v>
       </c>
@@ -6623,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>134</v>
       </c>
@@ -6643,7 +6634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>134</v>
       </c>
@@ -6663,7 +6654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>134</v>
       </c>
@@ -6683,7 +6674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>135</v>
       </c>
@@ -6703,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>135</v>
       </c>
@@ -6723,7 +6714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>135</v>
       </c>
@@ -6743,7 +6734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>135</v>
       </c>
@@ -6763,7 +6754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>135</v>
       </c>
@@ -6783,7 +6774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>135</v>
       </c>
@@ -6803,7 +6794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>135</v>
       </c>
@@ -6823,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>135</v>
       </c>
@@ -6843,7 +6834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>135</v>
       </c>
@@ -6863,7 +6854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>136</v>
       </c>
@@ -6883,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>136</v>
       </c>
@@ -6903,7 +6894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>136</v>
       </c>
@@ -6923,7 +6914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>136</v>
       </c>
@@ -6943,7 +6934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>136</v>
       </c>
@@ -6963,7 +6954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>136</v>
       </c>
@@ -6983,7 +6974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>136</v>
       </c>
@@ -7003,7 +6994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>136</v>
       </c>
@@ -7023,7 +7014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>136</v>
       </c>
@@ -7043,7 +7034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>137</v>
       </c>
@@ -7063,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>137</v>
       </c>
@@ -7083,7 +7074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>137</v>
       </c>
@@ -7103,7 +7094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>137</v>
       </c>
@@ -7123,7 +7114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>137</v>
       </c>
@@ -7143,7 +7134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>137</v>
       </c>
@@ -7163,7 +7154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>137</v>
       </c>
@@ -7183,7 +7174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>137</v>
       </c>
@@ -7203,7 +7194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>137</v>
       </c>
@@ -7223,7 +7214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>138</v>
       </c>
@@ -7234,7 +7225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>138</v>
       </c>
@@ -7245,7 +7236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>138</v>
       </c>
@@ -7256,7 +7247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>138</v>
       </c>
@@ -7267,7 +7258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>138</v>
       </c>
@@ -7278,7 +7269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>138</v>
       </c>
@@ -7289,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>138</v>
       </c>
@@ -7300,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>138</v>
       </c>
@@ -7311,7 +7302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>138</v>
       </c>
@@ -7322,7 +7313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>139</v>
       </c>
@@ -7333,7 +7324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>139</v>
       </c>
@@ -7344,7 +7335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>139</v>
       </c>
@@ -7355,7 +7346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>139</v>
       </c>
@@ -7366,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>139</v>
       </c>
@@ -7377,7 +7368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>139</v>
       </c>
@@ -7388,7 +7379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>139</v>
       </c>
@@ -7399,7 +7390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>139</v>
       </c>
@@ -7410,7 +7401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>139</v>
       </c>
@@ -7421,7 +7412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>140</v>
       </c>
@@ -7432,7 +7423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>140</v>
       </c>
@@ -7443,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>140</v>
       </c>
@@ -7454,7 +7445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>140</v>
       </c>
@@ -7465,7 +7456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>140</v>
       </c>
@@ -7476,7 +7467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>140</v>
       </c>
@@ -7487,7 +7478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>140</v>
       </c>
@@ -7498,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>140</v>
       </c>
@@ -7509,7 +7500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>140</v>
       </c>
@@ -7531,21 +7522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7565,7 +7556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
@@ -7585,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -7605,7 +7596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201</v>
       </c>
@@ -7625,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201</v>
       </c>
@@ -7645,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -7665,7 +7656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>201</v>
       </c>
@@ -7685,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>201</v>
       </c>
@@ -7705,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -7725,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>201</v>
       </c>
@@ -7745,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>202</v>
       </c>
@@ -7765,7 +7756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -7785,7 +7776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
@@ -7805,7 +7796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>202</v>
       </c>
@@ -7825,7 +7816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>202</v>
       </c>
@@ -7845,7 +7836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>202</v>
       </c>
@@ -7865,7 +7856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>202</v>
       </c>
@@ -7885,7 +7876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>202</v>
       </c>
@@ -7905,7 +7896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>202</v>
       </c>
@@ -7925,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>203</v>
       </c>
@@ -7945,7 +7936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>203</v>
       </c>
@@ -7965,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>203</v>
       </c>
@@ -7985,7 +7976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -8005,7 +7996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>203</v>
       </c>
@@ -8025,7 +8016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>203</v>
       </c>
@@ -8045,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>203</v>
       </c>
@@ -8065,7 +8056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>203</v>
       </c>
@@ -8085,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>203</v>
       </c>
@@ -8105,7 +8096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>204</v>
       </c>
@@ -8125,7 +8116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>204</v>
       </c>
@@ -8145,7 +8136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>204</v>
       </c>
@@ -8165,7 +8156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>204</v>
       </c>
@@ -8185,7 +8176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -8205,7 +8196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>204</v>
       </c>
@@ -8225,7 +8216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>204</v>
       </c>
@@ -8245,7 +8236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -8265,7 +8256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>204</v>
       </c>
@@ -8285,7 +8276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>205</v>
       </c>
@@ -8305,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>205</v>
       </c>
@@ -8325,7 +8316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>205</v>
       </c>
@@ -8345,7 +8336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>205</v>
       </c>
@@ -8365,7 +8356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>205</v>
       </c>
@@ -8385,7 +8376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>205</v>
       </c>
@@ -8405,7 +8396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -8425,7 +8416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -8445,7 +8436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>205</v>
       </c>
@@ -8465,7 +8456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>206</v>
       </c>
@@ -8485,7 +8476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -8505,7 +8496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>206</v>
       </c>
@@ -8525,7 +8516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>206</v>
       </c>
@@ -8545,7 +8536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>206</v>
       </c>
@@ -8565,7 +8556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>206</v>
       </c>
@@ -8585,7 +8576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>206</v>
       </c>
@@ -8605,7 +8596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -8625,7 +8616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>206</v>
       </c>
@@ -8645,7 +8636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>207</v>
       </c>
@@ -8665,7 +8656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>207</v>
       </c>
@@ -8685,7 +8676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -8705,7 +8696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>207</v>
       </c>
@@ -8725,7 +8716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>207</v>
       </c>
@@ -8745,7 +8736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>207</v>
       </c>
@@ -8765,7 +8756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>207</v>
       </c>
@@ -8785,7 +8776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>207</v>
       </c>
@@ -8805,7 +8796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>207</v>
       </c>
@@ -8825,7 +8816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>208</v>
       </c>
@@ -8845,7 +8836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>208</v>
       </c>
@@ -8865,7 +8856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>208</v>
       </c>
@@ -8885,7 +8876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>208</v>
       </c>
@@ -8905,7 +8896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>208</v>
       </c>
@@ -8925,7 +8916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>208</v>
       </c>
@@ -8945,7 +8936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -8965,7 +8956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>208</v>
       </c>
@@ -8985,7 +8976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>208</v>
       </c>
@@ -9005,7 +8996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>209</v>
       </c>
@@ -9025,7 +9016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>209</v>
       </c>
@@ -9045,7 +9036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>209</v>
       </c>
@@ -9065,7 +9056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>209</v>
       </c>
@@ -9085,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>209</v>
       </c>
@@ -9105,7 +9096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>209</v>
       </c>
@@ -9125,7 +9116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>209</v>
       </c>
@@ -9145,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>209</v>
       </c>
@@ -9165,7 +9156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>209</v>
       </c>
@@ -9185,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>210</v>
       </c>
@@ -9205,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>210</v>
       </c>
@@ -9225,7 +9216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>210</v>
       </c>
@@ -9245,7 +9236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>210</v>
       </c>
@@ -9265,7 +9256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>210</v>
       </c>
@@ -9285,7 +9276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>210</v>
       </c>
@@ -9305,7 +9296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>210</v>
       </c>
@@ -9325,7 +9316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>210</v>
       </c>
@@ -9345,7 +9336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>210</v>
       </c>
@@ -9365,7 +9356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>211</v>
       </c>
@@ -9385,7 +9376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>211</v>
       </c>
@@ -9405,7 +9396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>211</v>
       </c>
@@ -9425,7 +9416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>211</v>
       </c>
@@ -9445,7 +9436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>211</v>
       </c>
@@ -9465,7 +9456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>211</v>
       </c>
@@ -9485,7 +9476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>211</v>
       </c>
@@ -9505,7 +9496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>211</v>
       </c>
@@ -9525,7 +9516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>211</v>
       </c>
@@ -9545,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>212</v>
       </c>
@@ -9565,7 +9556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>212</v>
       </c>
@@ -9585,7 +9576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>212</v>
       </c>
@@ -9605,7 +9596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>212</v>
       </c>
@@ -9625,7 +9616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -9645,7 +9636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>212</v>
       </c>
@@ -9665,7 +9656,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>212</v>
       </c>
@@ -9685,7 +9676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>212</v>
       </c>
@@ -9705,7 +9696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>212</v>
       </c>
@@ -9725,7 +9716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>213</v>
       </c>
@@ -9745,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>213</v>
       </c>
@@ -9765,7 +9756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>213</v>
       </c>
@@ -9785,7 +9776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>213</v>
       </c>
@@ -9805,7 +9796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>213</v>
       </c>
@@ -9825,7 +9816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>213</v>
       </c>
@@ -9845,7 +9836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>213</v>
       </c>
@@ -9865,7 +9856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>213</v>
       </c>
@@ -9885,7 +9876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>213</v>
       </c>
@@ -9905,7 +9896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>214</v>
       </c>
@@ -9925,7 +9916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>214</v>
       </c>
@@ -9945,7 +9936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>214</v>
       </c>
@@ -9965,7 +9956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>214</v>
       </c>
@@ -9985,7 +9976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>214</v>
       </c>
@@ -10005,7 +9996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>214</v>
       </c>
@@ -10025,7 +10016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>214</v>
       </c>
@@ -10045,7 +10036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>214</v>
       </c>
@@ -10065,7 +10056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>214</v>
       </c>
@@ -10085,7 +10076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>215</v>
       </c>
@@ -10105,7 +10096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>215</v>
       </c>
@@ -10125,7 +10116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>215</v>
       </c>
@@ -10145,7 +10136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>215</v>
       </c>
@@ -10165,7 +10156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>215</v>
       </c>
@@ -10185,7 +10176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>215</v>
       </c>
@@ -10205,7 +10196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>215</v>
       </c>
@@ -10225,7 +10216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>215</v>
       </c>
@@ -10245,7 +10236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>215</v>
       </c>
@@ -10265,7 +10256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>216</v>
       </c>
@@ -10285,7 +10276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>216</v>
       </c>
@@ -10305,7 +10296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>216</v>
       </c>
@@ -10325,7 +10316,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>216</v>
       </c>
@@ -10345,7 +10336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>216</v>
       </c>
@@ -10365,7 +10356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>216</v>
       </c>
@@ -10385,7 +10376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>216</v>
       </c>
@@ -10405,7 +10396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>216</v>
       </c>
@@ -10425,7 +10416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>216</v>
       </c>
@@ -10445,7 +10436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>217</v>
       </c>
@@ -10465,7 +10456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>217</v>
       </c>
@@ -10488,7 +10479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>217</v>
       </c>
@@ -10508,7 +10499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>217</v>
       </c>
@@ -10528,7 +10519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>217</v>
       </c>
@@ -10548,7 +10539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>217</v>
       </c>
@@ -10568,7 +10559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>217</v>
       </c>
@@ -10588,7 +10579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>217</v>
       </c>
@@ -10608,7 +10599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>217</v>
       </c>
@@ -10628,7 +10619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>218</v>
       </c>
@@ -10648,7 +10639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>218</v>
       </c>
@@ -10668,7 +10659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>218</v>
       </c>
@@ -10688,7 +10679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>218</v>
       </c>
@@ -10708,7 +10699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>218</v>
       </c>
@@ -10728,7 +10719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>218</v>
       </c>
@@ -10748,7 +10739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>218</v>
       </c>
@@ -10768,7 +10759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>218</v>
       </c>
@@ -10788,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>218</v>
       </c>
@@ -10808,7 +10799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>219</v>
       </c>
@@ -10828,7 +10819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>219</v>
       </c>
@@ -10848,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>219</v>
       </c>
@@ -10868,7 +10859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>219</v>
       </c>
@@ -10888,7 +10879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>219</v>
       </c>
@@ -10908,7 +10899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>219</v>
       </c>
@@ -10928,7 +10919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>219</v>
       </c>
@@ -10948,7 +10939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>219</v>
       </c>
@@ -10968,7 +10959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>219</v>
       </c>
@@ -10988,7 +10979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>220</v>
       </c>
@@ -11008,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>220</v>
       </c>
@@ -11028,7 +11019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>220</v>
       </c>
@@ -11048,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>220</v>
       </c>
@@ -11068,7 +11059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>220</v>
       </c>
@@ -11088,7 +11079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>220</v>
       </c>
@@ -11108,7 +11099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>220</v>
       </c>
@@ -11128,7 +11119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -11148,7 +11139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>220</v>
       </c>
@@ -11168,7 +11159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>221</v>
       </c>
@@ -11188,7 +11179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>221</v>
       </c>
@@ -11208,7 +11199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>221</v>
       </c>
@@ -11228,7 +11219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>221</v>
       </c>
@@ -11248,7 +11239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>221</v>
       </c>
@@ -11268,7 +11259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>221</v>
       </c>
@@ -11288,7 +11279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>221</v>
       </c>
@@ -11308,7 +11299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>221</v>
       </c>
@@ -11328,7 +11319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>221</v>
       </c>
@@ -11348,7 +11339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>222</v>
       </c>
@@ -11368,7 +11359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>222</v>
       </c>
@@ -11388,7 +11379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>222</v>
       </c>
@@ -11408,7 +11399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>222</v>
       </c>
@@ -11428,7 +11419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>222</v>
       </c>
@@ -11448,7 +11439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>222</v>
       </c>
@@ -11468,7 +11459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>222</v>
       </c>
@@ -11488,7 +11479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>222</v>
       </c>
@@ -11508,7 +11499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>222</v>
       </c>
@@ -11528,7 +11519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>223</v>
       </c>
@@ -11548,7 +11539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>223</v>
       </c>
@@ -11568,7 +11559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>223</v>
       </c>
@@ -11588,7 +11579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>223</v>
       </c>
@@ -11608,7 +11599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>223</v>
       </c>
@@ -11628,7 +11619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>223</v>
       </c>
@@ -11648,7 +11639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>223</v>
       </c>
@@ -11668,7 +11659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>223</v>
       </c>
@@ -11688,7 +11679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>223</v>
       </c>
@@ -11708,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>224</v>
       </c>
@@ -11728,7 +11719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>224</v>
       </c>
@@ -11748,7 +11739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>224</v>
       </c>
@@ -11768,7 +11759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>224</v>
       </c>
@@ -11788,7 +11779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>224</v>
       </c>
@@ -11808,7 +11799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>224</v>
       </c>
@@ -11828,7 +11819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>224</v>
       </c>
@@ -11848,7 +11839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>224</v>
       </c>
@@ -11868,7 +11859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>224</v>
       </c>
@@ -11888,7 +11879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>225</v>
       </c>
@@ -11908,7 +11899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>225</v>
       </c>
@@ -11928,7 +11919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>225</v>
       </c>
@@ -11948,7 +11939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>225</v>
       </c>
@@ -11968,7 +11959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>225</v>
       </c>
@@ -11988,7 +11979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>225</v>
       </c>
@@ -12008,7 +11999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>225</v>
       </c>
@@ -12028,7 +12019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -12048,7 +12039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -12068,7 +12059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -12088,7 +12079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12108,7 +12099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>226</v>
       </c>
@@ -12128,7 +12119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>226</v>
       </c>
@@ -12148,7 +12139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>226</v>
       </c>
@@ -12168,7 +12159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>226</v>
       </c>
@@ -12188,7 +12179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>226</v>
       </c>
@@ -12208,7 +12199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>226</v>
       </c>
@@ -12228,7 +12219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>226</v>
       </c>
@@ -12248,7 +12239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>227</v>
       </c>
@@ -12258,8 +12249,17 @@
       <c r="C236" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D236" s="1">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1">
+        <v>10</v>
+      </c>
+      <c r="F236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>227</v>
       </c>
@@ -12269,8 +12269,17 @@
       <c r="C237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>10</v>
+      </c>
+      <c r="F237" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>227</v>
       </c>
@@ -12280,8 +12289,17 @@
       <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D238" s="1">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1">
+        <v>10</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>227</v>
       </c>
@@ -12291,8 +12309,17 @@
       <c r="C239" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D239" s="1">
+        <v>2</v>
+      </c>
+      <c r="E239" s="1">
+        <v>10</v>
+      </c>
+      <c r="F239" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>227</v>
       </c>
@@ -12302,8 +12329,17 @@
       <c r="C240" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>10</v>
+      </c>
+      <c r="F240" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>227</v>
       </c>
@@ -12313,8 +12349,17 @@
       <c r="C241" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D241" s="1">
+        <v>3</v>
+      </c>
+      <c r="E241" s="1">
+        <v>8</v>
+      </c>
+      <c r="F241" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>227</v>
       </c>
@@ -12324,8 +12369,17 @@
       <c r="C242" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D242" s="1">
+        <v>2</v>
+      </c>
+      <c r="E242" s="1">
+        <v>10</v>
+      </c>
+      <c r="F242" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>227</v>
       </c>
@@ -12335,8 +12389,17 @@
       <c r="C243" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D243" s="1">
+        <v>2</v>
+      </c>
+      <c r="E243" s="1">
+        <v>9</v>
+      </c>
+      <c r="F243" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>227</v>
       </c>
@@ -12346,8 +12409,17 @@
       <c r="C244" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D244" s="3">
+        <v>5</v>
+      </c>
+      <c r="E244" s="3">
+        <v>9</v>
+      </c>
+      <c r="F244" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>228</v>
       </c>
@@ -12358,7 +12430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>228</v>
       </c>
@@ -12369,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>228</v>
       </c>
@@ -12380,7 +12452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>228</v>
       </c>
@@ -12391,7 +12463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>228</v>
       </c>
@@ -12402,7 +12474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>228</v>
       </c>
@@ -12413,7 +12485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>228</v>
       </c>
@@ -12424,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>228</v>
       </c>
@@ -12435,7 +12507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>228</v>
       </c>
@@ -12446,7 +12518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>229</v>
       </c>
@@ -12457,7 +12529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>229</v>
       </c>
@@ -12468,7 +12540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>229</v>
       </c>
@@ -12479,7 +12551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>229</v>
       </c>
@@ -12490,7 +12562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>229</v>
       </c>
@@ -12501,7 +12573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>229</v>
       </c>
@@ -12512,7 +12584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>229</v>
       </c>
@@ -12523,7 +12595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>229</v>
       </c>
@@ -12534,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>229</v>
       </c>
@@ -12545,7 +12617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>230</v>
       </c>
@@ -12556,7 +12628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>230</v>
       </c>
@@ -12567,7 +12639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>230</v>
       </c>
@@ -12578,7 +12650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>230</v>
       </c>
@@ -12589,7 +12661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>230</v>
       </c>
@@ -12600,7 +12672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>230</v>
       </c>
@@ -12611,7 +12683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>230</v>
       </c>
@@ -12622,7 +12694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>230</v>
       </c>
@@ -12633,7 +12705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>230</v>
       </c>
@@ -12644,7 +12716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>231</v>
       </c>
@@ -12655,7 +12727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>231</v>
       </c>
@@ -12666,7 +12738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>231</v>
       </c>
@@ -12677,7 +12749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>231</v>
       </c>
@@ -12688,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>231</v>
       </c>
@@ -12699,7 +12771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>231</v>
       </c>
@@ -12710,7 +12782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>231</v>
       </c>
@@ -12721,7 +12793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>231</v>
       </c>
@@ -12732,7 +12804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>231</v>
       </c>
@@ -12743,7 +12815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>232</v>
       </c>
@@ -12754,7 +12826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>232</v>
       </c>
@@ -12765,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>232</v>
       </c>
@@ -12776,7 +12848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>232</v>
       </c>
@@ -12787,7 +12859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>232</v>
       </c>
@@ -12798,7 +12870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>232</v>
       </c>
@@ -12809,7 +12881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>232</v>
       </c>
@@ -12820,7 +12892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>232</v>
       </c>
@@ -12831,7 +12903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>232</v>
       </c>
@@ -12842,7 +12914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>233</v>
       </c>
@@ -12853,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>233</v>
       </c>
@@ -12864,7 +12936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>233</v>
       </c>
@@ -12875,7 +12947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>233</v>
       </c>
@@ -12886,7 +12958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>233</v>
       </c>
@@ -12897,7 +12969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>233</v>
       </c>
@@ -12908,7 +12980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>233</v>
       </c>
@@ -12919,7 +12991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>233</v>
       </c>
@@ -12930,7 +13002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>233</v>
       </c>
@@ -12941,7 +13013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>234</v>
       </c>
@@ -12952,7 +13024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>234</v>
       </c>
@@ -12963,7 +13035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>234</v>
       </c>
@@ -12974,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>234</v>
       </c>
@@ -12985,7 +13057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>234</v>
       </c>
@@ -12996,7 +13068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>234</v>
       </c>
@@ -13007,7 +13079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>234</v>
       </c>
@@ -13018,7 +13090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>234</v>
       </c>
@@ -13029,7 +13101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>234</v>
       </c>
@@ -13040,7 +13112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>235</v>
       </c>
@@ -13051,7 +13123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>235</v>
       </c>
@@ -13062,7 +13134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>235</v>
       </c>
@@ -13073,7 +13145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>235</v>
       </c>
@@ -13084,7 +13156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>235</v>
       </c>
@@ -13095,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>235</v>
       </c>
@@ -13106,7 +13178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>235</v>
       </c>
@@ -13117,7 +13189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>235</v>
       </c>
@@ -13128,7 +13200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>235</v>
       </c>
@@ -13139,7 +13211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>236</v>
       </c>
@@ -13150,7 +13222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>236</v>
       </c>
@@ -13161,7 +13233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>236</v>
       </c>
@@ -13172,7 +13244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>236</v>
       </c>
@@ -13183,7 +13255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>236</v>
       </c>
@@ -13194,7 +13266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>236</v>
       </c>
@@ -13205,7 +13277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>236</v>
       </c>
@@ -13216,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>236</v>
       </c>
@@ -13227,7 +13299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>236</v>
       </c>
@@ -13238,7 +13310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>237</v>
       </c>
@@ -13249,7 +13321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>237</v>
       </c>
@@ -13260,7 +13332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>237</v>
       </c>
@@ -13271,7 +13343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>237</v>
       </c>
@@ -13282,7 +13354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>237</v>
       </c>
@@ -13293,7 +13365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>237</v>
       </c>
@@ -13304,7 +13376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>237</v>
       </c>
@@ -13315,7 +13387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>237</v>
       </c>
@@ -13326,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>237</v>
       </c>
@@ -13337,7 +13409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>238</v>
       </c>
@@ -13348,7 +13420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>238</v>
       </c>
@@ -13359,7 +13431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>238</v>
       </c>
@@ -13370,7 +13442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>238</v>
       </c>
@@ -13381,7 +13453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>238</v>
       </c>
@@ -13392,7 +13464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>238</v>
       </c>
@@ -13403,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>238</v>
       </c>
@@ -13414,7 +13486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>238</v>
       </c>
@@ -13425,7 +13497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>238</v>
       </c>
@@ -13436,7 +13508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>239</v>
       </c>
@@ -13447,7 +13519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>239</v>
       </c>
@@ -13458,7 +13530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>239</v>
       </c>
@@ -13469,7 +13541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>239</v>
       </c>
@@ -13480,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>239</v>
       </c>
@@ -13491,7 +13563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>239</v>
       </c>
@@ -13502,7 +13574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>239</v>
       </c>
@@ -13513,7 +13585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>239</v>
       </c>
@@ -13524,7 +13596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>239</v>
       </c>
@@ -13535,7 +13607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>240</v>
       </c>
@@ -13546,7 +13618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>240</v>
       </c>
@@ -13557,7 +13629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>240</v>
       </c>
@@ -13568,7 +13640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>240</v>
       </c>
@@ -13579,7 +13651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>240</v>
       </c>
@@ -13590,7 +13662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>240</v>
       </c>
@@ -13601,7 +13673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>240</v>
       </c>
@@ -13612,7 +13684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>240</v>
       </c>
@@ -13623,7 +13695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>240</v>
       </c>
@@ -13646,15 +13718,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-88</v>
       </c>
@@ -13662,7 +13734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-99</v>
       </c>
@@ -13670,7 +13742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-100</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D319A1D-90CA-4B03-A4FC-17943987D7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9912EF-B1E2-4D92-87B6-4D74032379A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="C323" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7224,6 +7224,15 @@
       <c r="C335" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D335" s="1">
+        <v>5</v>
+      </c>
+      <c r="E335" s="1">
+        <v>7</v>
+      </c>
+      <c r="F335" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
@@ -7235,8 +7244,17 @@
       <c r="C336" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336" s="1">
+        <v>4</v>
+      </c>
+      <c r="E336" s="1">
+        <v>7</v>
+      </c>
+      <c r="F336" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>138</v>
       </c>
@@ -7246,8 +7264,17 @@
       <c r="C337" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337" s="1">
+        <v>5</v>
+      </c>
+      <c r="E337" s="1">
+        <v>7</v>
+      </c>
+      <c r="F337" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>138</v>
       </c>
@@ -7257,8 +7284,17 @@
       <c r="C338" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338" s="1">
+        <v>1</v>
+      </c>
+      <c r="E338" s="1">
+        <v>8</v>
+      </c>
+      <c r="F338" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>138</v>
       </c>
@@ -7268,8 +7304,17 @@
       <c r="C339" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339" s="1">
+        <v>5</v>
+      </c>
+      <c r="E339" s="1">
+        <v>7</v>
+      </c>
+      <c r="F339" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>138</v>
       </c>
@@ -7279,8 +7324,17 @@
       <c r="C340" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340" s="1">
+        <v>6</v>
+      </c>
+      <c r="E340" s="1">
+        <v>7</v>
+      </c>
+      <c r="F340" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>138</v>
       </c>
@@ -7290,8 +7344,17 @@
       <c r="C341" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341" s="1">
+        <v>3</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8</v>
+      </c>
+      <c r="F341" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>138</v>
       </c>
@@ -7301,8 +7364,17 @@
       <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D342" s="1">
+        <v>8</v>
+      </c>
+      <c r="E342" s="1">
+        <v>7</v>
+      </c>
+      <c r="F342" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>138</v>
       </c>
@@ -7312,8 +7384,17 @@
       <c r="C343" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343" s="3">
+        <v>8</v>
+      </c>
+      <c r="E343" s="3">
+        <v>7</v>
+      </c>
+      <c r="F343" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>139</v>
       </c>
@@ -7324,7 +7405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>139</v>
       </c>
@@ -7335,7 +7416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>139</v>
       </c>
@@ -7346,7 +7427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>139</v>
       </c>
@@ -7357,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>139</v>
       </c>
@@ -7368,7 +7449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>139</v>
       </c>
@@ -7379,7 +7460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>139</v>
       </c>
@@ -7390,7 +7471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>139</v>
       </c>
@@ -7401,7 +7482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>139</v>
       </c>
@@ -7522,7 +7603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9912EF-B1E2-4D92-87B6-4D74032379A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0038543-068E-4FA9-9A02-48F35E8383F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C323" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="B333" workbookViewId="0">
+      <selection activeCell="F352" sqref="F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7404,6 +7404,15 @@
       <c r="C344" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D344" s="1">
+        <v>5</v>
+      </c>
+      <c r="E344" s="1">
+        <v>7</v>
+      </c>
+      <c r="F344" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
@@ -7415,6 +7424,15 @@
       <c r="C345" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D345" s="1">
+        <v>1</v>
+      </c>
+      <c r="E345" s="1">
+        <v>8</v>
+      </c>
+      <c r="F345" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
@@ -7426,6 +7444,15 @@
       <c r="C346" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D346" s="1">
+        <v>6</v>
+      </c>
+      <c r="E346" s="1">
+        <v>-99</v>
+      </c>
+      <c r="F346" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
@@ -7437,6 +7464,15 @@
       <c r="C347" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D347" s="1">
+        <v>8</v>
+      </c>
+      <c r="E347" s="1">
+        <v>4</v>
+      </c>
+      <c r="F347" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
@@ -7448,6 +7484,15 @@
       <c r="C348" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D348" s="1">
+        <v>8</v>
+      </c>
+      <c r="E348" s="1">
+        <v>6</v>
+      </c>
+      <c r="F348" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
@@ -7459,6 +7504,15 @@
       <c r="C349" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D349" s="1">
+        <v>8</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3</v>
+      </c>
+      <c r="F349" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
@@ -7470,6 +7524,15 @@
       <c r="C350" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D350" s="1">
+        <v>5</v>
+      </c>
+      <c r="E350" s="1">
+        <v>4</v>
+      </c>
+      <c r="F350" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
@@ -7481,6 +7544,15 @@
       <c r="C351" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D351" s="1">
+        <v>1</v>
+      </c>
+      <c r="E351" s="1">
+        <v>8</v>
+      </c>
+      <c r="F351" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="352" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
@@ -7491,6 +7563,15 @@
       </c>
       <c r="C352" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D352" s="3">
+        <v>9</v>
+      </c>
+      <c r="E352" s="3">
+        <v>6</v>
+      </c>
+      <c r="F352" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0038543-068E-4FA9-9A02-48F35E8383F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211B106-2CF3-4D7C-A7B3-E8977E714E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B333" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C337" workbookViewId="0">
       <selection activeCell="F352" sqref="F352"/>
     </sheetView>
   </sheetViews>
@@ -7574,7 +7574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>140</v>
       </c>
@@ -7584,8 +7584,17 @@
       <c r="C353" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353" s="1">
+        <v>1</v>
+      </c>
+      <c r="E353" s="1">
+        <v>6</v>
+      </c>
+      <c r="F353" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>140</v>
       </c>
@@ -7595,8 +7604,17 @@
       <c r="C354" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354" s="1">
+        <v>7</v>
+      </c>
+      <c r="E354" s="1">
+        <v>6</v>
+      </c>
+      <c r="F354" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>140</v>
       </c>
@@ -7606,8 +7624,17 @@
       <c r="C355" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355" s="1">
+        <v>5</v>
+      </c>
+      <c r="E355" s="1">
+        <v>5</v>
+      </c>
+      <c r="F355" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>140</v>
       </c>
@@ -7617,8 +7644,17 @@
       <c r="C356" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356" s="1">
+        <v>10</v>
+      </c>
+      <c r="E356" s="1">
+        <v>5</v>
+      </c>
+      <c r="F356" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>140</v>
       </c>
@@ -7628,8 +7664,17 @@
       <c r="C357" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357" s="1">
+        <v>6</v>
+      </c>
+      <c r="E357" s="1">
+        <v>8</v>
+      </c>
+      <c r="F357" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>140</v>
       </c>
@@ -7639,8 +7684,17 @@
       <c r="C358" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358" s="1">
+        <v>4</v>
+      </c>
+      <c r="E358" s="1">
+        <v>7</v>
+      </c>
+      <c r="F358" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>140</v>
       </c>
@@ -7650,8 +7704,17 @@
       <c r="C359" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359" s="1">
+        <v>6</v>
+      </c>
+      <c r="E359" s="1">
+        <v>7</v>
+      </c>
+      <c r="F359" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>140</v>
       </c>
@@ -7661,8 +7724,17 @@
       <c r="C360" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D360" s="1">
+        <v>6</v>
+      </c>
+      <c r="E360" s="1">
+        <v>6</v>
+      </c>
+      <c r="F360" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>140</v>
       </c>
@@ -7671,6 +7743,15 @@
       </c>
       <c r="C361" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D361" s="3">
+        <v>10</v>
+      </c>
+      <c r="E361" s="3">
+        <v>7</v>
+      </c>
+      <c r="F361" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/SRI/Coding_SRI_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\SRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211B106-2CF3-4D7C-A7B3-E8977E714E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F409FCA-B591-4367-9FB6-A80BDA794F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C337" workbookViewId="0">
-      <selection activeCell="F352" sqref="F352"/>
+    <sheetView topLeftCell="C340" workbookViewId="0">
+      <selection activeCell="F365" sqref="F365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7765,8 +7765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12672,6 +12672,15 @@
       <c r="C245" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D245" s="1">
+        <v>6</v>
+      </c>
+      <c r="E245" s="1">
+        <v>9</v>
+      </c>
+      <c r="F245" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
@@ -12683,6 +12692,15 @@
       <c r="C246" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D246" s="1">
+        <v>3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>9</v>
+      </c>
+      <c r="F246" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
@@ -12694,6 +12712,15 @@
       <c r="C247" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D247" s="1">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1">
+        <v>10</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
@@ -12705,6 +12732,15 @@
       <c r="C248" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D248" s="1">
+        <v>7</v>
+      </c>
+      <c r="E248" s="1">
+        <v>5</v>
+      </c>
+      <c r="F248" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
@@ -12716,6 +12752,15 @@
       <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D249" s="1">
+        <v>8</v>
+      </c>
+      <c r="E249" s="1">
+        <v>5</v>
+      </c>
+      <c r="F249" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
@@ -12727,6 +12772,15 @@
       <c r="C250" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D250" s="1">
+        <v>10</v>
+      </c>
+      <c r="E250" s="1">
+        <v>10</v>
+      </c>
+      <c r="F250" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
@@ -12738,6 +12792,15 @@
       <c r="C251" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D251" s="1">
+        <v>9</v>
+      </c>
+      <c r="E251" s="1">
+        <v>9</v>
+      </c>
+      <c r="F251" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
@@ -12749,6 +12812,15 @@
       <c r="C252" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D252" s="1">
+        <v>0</v>
+      </c>
+      <c r="E252" s="1">
+        <v>10</v>
+      </c>
+      <c r="F252" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="253" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
@@ -12759,6 +12831,15 @@
       </c>
       <c r="C253" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D253" s="3">
+        <v>10</v>
+      </c>
+      <c r="E253" s="3">
+        <v>9</v>
+      </c>
+      <c r="F253" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
